--- a/test/filetest.xlsx
+++ b/test/filetest.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20352"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\c#\thanh\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\git\pmxuancuong\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAC56D6-8E46-4B54-B0EC-83614449F5B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19008" windowHeight="10416" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19005" windowHeight="10410"/>
   </bookViews>
   <sheets>
     <sheet name="files đầu vào chưa dịch" sheetId="3" r:id="rId1"/>
@@ -57,7 +56,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="13"/>
@@ -81,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -89,17 +88,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -380,152 +401,155 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.08984375" customWidth="1"/>
-    <col min="2" max="2" width="58.54296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="43.1796875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.453125" customWidth="1"/>
-    <col min="5" max="5" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="22.109375" customWidth="1"/>
+    <col min="2" max="2" width="58.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="43.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.44140625" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="4">
         <v>23000</v>
       </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="E2" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>23000</v>
       </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="E3" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4">
         <v>23000</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="E4" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4">
         <v>23000</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4">
         <v>23000</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="E6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4">
         <v>23000</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5">
+        <v>123434</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="4">
         <v>23001</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>2</v>
       </c>
     </row>
